--- a/templates/AutomationOrg/Site to Site.xlsx
+++ b/templates/AutomationOrg/Site to Site.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QA-Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\EventDemo\Parallel-Execution\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B50E1B0-0604-45C1-A8FF-0C3A36C56368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2691ECA-0890-405E-B4C7-72D6540C9BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{AAD229B4-EC82-43D3-8B6F-DC67705348E6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{AAD229B4-EC82-43D3-8B6F-DC67705348E6}"/>
   </bookViews>
   <sheets>
     <sheet name="RSTK-8890-Lot-existing" sheetId="5" r:id="rId1"/>
@@ -504,7 +504,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E4" sqref="A4:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F85960-0F54-4DCC-BB2F-5B38F7825B71}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -818,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4162C36B-ECFB-4DAC-AD3A-9CBFF0F4681E}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
